--- a/StructureDefinition-profile-Provenance.xlsx
+++ b/StructureDefinition-profile-Provenance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="411">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7730329-06:00</t>
+    <t>2026-02-09T22:05:43.2845793-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -435,33 +435,89 @@
     <t>Provenance.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Provenance.extension:basedOn</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Provenance.basedOn from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan,http://hl7.org/fhir/StructureDefinition/DeviceRequest,http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation,http://hl7.org/fhir/StructureDefinition/MedicationRequest,http://hl7.org/fhir/StructureDefinition/NutritionOrder,http://hl7.org/fhir/StructureDefinition/ServiceRequest,http://hl7.org/fhir/StructureDefinition/Task in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Provenance.basedOn` is will have a context of Provenance based on following the parent source element upwards and mapping to `Provenance`.</t>
+  </si>
+  <si>
+    <t>Provenance.extension:patient</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Provenance.patient from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.patient` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Provenance.patient` is will have a context of Provenance based on following the parent source element upwards and mapping to `Provenance`.</t>
+  </si>
+  <si>
+    <t>Provenance.extension:encounter</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Provenance.encounter from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Encounter in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Provenance.encounter` is will have a context of Provenance based on following the parent source element upwards and mapping to `Provenance`.</t>
+  </si>
+  <si>
+    <t>Provenance.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Provenance.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -469,6 +525,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -664,23 +723,16 @@
     <t>Provenance.reason.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Provenance.reason.extension:authorization</t>
+  </si>
+  <si>
+    <t>authorization</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.authorization|0.0.1-snapshot-3}
@@ -693,6 +745,9 @@
     <t>The authorization (e.g., PurposeOfUse) that was used during the event being recorded.</t>
   </si>
   <si>
+    <t>Element `Provenance.authorization` is mapped to FHIR R4 element `Provenance.reason`.</t>
+  </si>
+  <si>
     <t>Provenance.reason.coding</t>
   </si>
   <si>
@@ -800,6 +855,9 @@
     <t>Provenance.agent.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -908,14 +966,21 @@
     <t>Provenance.agent.who.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.agent.who|0.0.1-snapshot-3}
-</t>
+    <t>Provenance.agent.who.extension:who</t>
+  </si>
+  <si>
+    <t>who</t>
   </si>
   <si>
     <t>Cross-version extension for Provenance.agent.who from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Indicates who or what performed in the event.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Provenance.agent.who` is part of an existing definition because parent element `Provenance.agent` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.agent.who` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Provenance.agent.who` is mapped to FHIR R4 element `Provenance.agent.who`.</t>
   </si>
   <si>
     <t>Provenance.agent.who.reference</t>
@@ -1020,14 +1085,18 @@
     <t>Provenance.agent.onBehalfOf.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.agent.onBehalfOf|0.0.1-snapshot-3}
-</t>
+    <t>Provenance.agent.onBehalfOf.extension:onBehalfOf</t>
+  </si>
+  <si>
+    <t>onBehalfOf</t>
   </si>
   <si>
     <t>Cross-version extension for Provenance.agent.onBehalfOf from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The agent that delegated authority to perform the activity performed by the agent.who element.</t>
+    <t>Element `Provenance.agent.onBehalfOf` is part of an existing definition because parent element `Provenance.agent` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.agent.onBehalfOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Provenance.agent.onBehalfOf` is mapped to FHIR R4 element `Provenance.agent.onBehalfOf`.</t>
   </si>
   <si>
     <t>Provenance.agent.onBehalfOf.reference</t>
@@ -1106,6 +1175,12 @@
   </si>
   <si>
     <t>Provenance.entity.role.extension</t>
+  </si>
+  <si>
+    <t>Provenance.entity.role.extension:role</t>
+  </si>
+  <si>
+    <t>role</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.entity.role|0.0.1-snapshot-3}
@@ -1115,6 +1190,9 @@
     <t>Cross-version extension for Provenance.entity.role from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `Provenance.entity.role` is mapped to FHIR R4 element `Provenance.entity.role`.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -1167,6 +1245,12 @@
     <t>Provenance.entity.agent.extension</t>
   </si>
   <si>
+    <t>Provenance.entity.agent.extension:agent</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.entity.agent|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1177,7 +1261,7 @@
     <t>The entity is attributed to an agent to express the agent's responsibility for that entity, possibly along with other agents. This description can be understood as shorthand for saying that the agent was responsible for the activity which used the entity.</t>
   </si>
   <si>
-    <t>A usecase where one Provenance.entity.agent is used where the Entity that was used in the creation/updating of the Target, is not in the context of the same custodianship as the Target, and thus the meaning of Provenance.entity.agent is to say that the entity referenced is managed elsewhere and that this Agent provided access to it.  This would be similar to where the Entity being referenced is managed outside FHIR, such as through HL7 V2, v3, or XDS. This might be where the Entity being referenced is managed in another FHIR resource server. Thus it explains the Provenance of that Entity's use in the context of this Provenance activity.</t>
+    <t>Element `Provenance.entity.agent` is mapped to FHIR R4 element `Provenance.entity.agent`.</t>
   </si>
   <si>
     <t>Provenance.entity.agent.modifierExtension</t>
@@ -1515,7 +1599,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1524,9 +1608,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.9296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.74609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.70703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2517,7 +2601,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2536,17 +2620,15 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -2583,16 +2665,14 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>141</v>
@@ -2613,7 +2693,7 @@
         <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>81</v>
@@ -2630,11 +2710,13 @@
         <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2647,26 +2729,24 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -2714,7 +2794,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2732,7 +2812,7 @@
         <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>81</v>
@@ -2746,22 +2826,24 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
       </c>
@@ -2769,19 +2851,19 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2831,10 +2913,10 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>80</v>
@@ -2843,32 +2925,34 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>81</v>
       </c>
@@ -2889,16 +2973,16 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2948,31 +3032,31 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -2980,44 +3064,46 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3065,42 +3151,42 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3108,7 +3194,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3120,19 +3206,19 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3182,10 +3268,10 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
@@ -3200,24 +3286,24 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3240,15 +3326,17 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3297,7 +3385,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3312,27 +3400,27 @@
         <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3340,10 +3428,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3352,18 +3440,20 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3388,13 +3478,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3412,13 +3502,13 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
@@ -3427,27 +3517,27 @@
         <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3458,7 +3548,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -3470,15 +3560,17 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3527,25 +3619,25 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
@@ -3554,15 +3646,15 @@
         <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3570,11 +3662,11 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3585,13 +3677,13 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3630,46 +3722,46 @@
         <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
@@ -3700,13 +3792,13 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3733,13 +3825,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -3757,7 +3849,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3769,30 +3861,30 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3803,7 +3895,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -3812,23 +3904,19 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O20" t="s" s="2">
         <v>223</v>
       </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -3882,13 +3970,13 @@
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -3922,7 +4010,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -3931,23 +4019,19 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -3983,37 +4067,37 @@
         <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
@@ -4027,12 +4111,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4041,7 +4127,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4053,15 +4139,17 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4086,13 +4174,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4110,31 +4198,31 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4142,10 +4230,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4153,7 +4241,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>80</v>
@@ -4165,22 +4253,22 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4229,10 +4317,10 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>80</v>
@@ -4244,27 +4332,27 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4284,19 +4372,23 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4344,7 +4436,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4356,13 +4448,13 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -4376,21 +4468,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4402,17 +4494,15 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4437,13 +4527,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4461,31 +4551,31 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4493,18 +4583,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
@@ -4513,25 +4603,25 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4580,10 +4670,10 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>80</v>
@@ -4592,30 +4682,30 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4635,20 +4725,18 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4673,13 +4761,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4697,7 +4785,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4709,22 +4797,22 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -4736,7 +4824,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4755,7 +4843,7 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>270</v>
@@ -4764,7 +4852,7 @@
         <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>272</v>
+        <v>163</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4790,13 +4878,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -4814,7 +4902,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4826,13 +4914,13 @@
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
@@ -4841,49 +4929,51 @@
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -4931,31 +5021,31 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -4963,10 +5053,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4986,18 +5076,20 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5022,13 +5114,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5046,7 +5138,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5058,22 +5150,22 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
@@ -5089,7 +5181,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -5104,15 +5196,17 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5137,31 +5231,31 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>214</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5173,13 +5267,13 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
@@ -5188,15 +5282,15 @@
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5216,18 +5310,20 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5276,31 +5372,31 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5308,10 +5404,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5331,20 +5427,18 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5393,7 +5487,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>224</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5402,16 +5496,16 @@
         <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -5425,10 +5519,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5436,10 +5530,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5448,20 +5542,18 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5486,49 +5578,49 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5542,18 +5634,20 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>91</v>
@@ -5565,19 +5659,19 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5627,25 +5721,25 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
@@ -5685,7 +5779,7 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>312</v>
@@ -5753,7 +5847,7 @@
         <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
@@ -5776,10 +5870,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5799,19 +5893,19 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5837,13 +5931,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -5861,7 +5955,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5879,7 +5973,7 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>320</v>
+        <v>134</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
@@ -5893,10 +5987,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5916,18 +6010,20 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -5976,7 +6072,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>206</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5988,13 +6084,13 @@
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
@@ -6008,10 +6104,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6019,11 +6115,11 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6031,18 +6127,20 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6079,37 +6177,37 @@
         <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
@@ -6123,10 +6221,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6149,15 +6247,17 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6206,25 +6306,25 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>214</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
@@ -6238,10 +6338,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6261,20 +6361,18 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6323,7 +6421,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>295</v>
+        <v>224</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6332,16 +6430,16 @@
         <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
@@ -6355,10 +6453,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6369,7 +6467,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6378,20 +6476,18 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6416,49 +6512,49 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -6472,12 +6568,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6495,19 +6593,19 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6557,25 +6655,25 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
@@ -6589,10 +6687,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6615,7 +6713,7 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>312</v>
@@ -6683,7 +6781,7 @@
         <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>103</v>
@@ -6706,10 +6804,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6720,7 +6818,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -6729,18 +6827,20 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6765,13 +6865,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -6789,13 +6889,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -6807,24 +6907,24 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6844,18 +6944,20 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -6904,7 +7006,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>206</v>
+        <v>329</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6916,13 +7018,13 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -6936,21 +7038,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -6959,19 +7061,19 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>138</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>140</v>
+        <v>334</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7021,25 +7123,25 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7053,14 +7155,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7073,26 +7175,22 @@
         <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>256</v>
+        <v>352</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7140,7 +7238,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>258</v>
+        <v>351</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7152,30 +7250,30 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7183,7 +7281,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>91</v>
@@ -7195,16 +7293,16 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
+        <v>222</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>341</v>
+        <v>223</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7231,13 +7329,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7255,10 +7353,10 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>91</v>
@@ -7267,41 +7365,41 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>345</v>
+        <v>225</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7313,15 +7411,17 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7370,25 +7470,25 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7402,18 +7502,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -7422,22 +7522,26 @@
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -7473,17 +7577,19 @@
         <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7501,7 +7607,7 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7515,10 +7621,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7538,16 +7644,16 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>352</v>
+        <v>111</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7574,13 +7680,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -7598,42 +7704,42 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>214</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>81</v>
+        <v>367</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7656,13 +7762,13 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7713,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>357</v>
+        <v>224</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7745,10 +7851,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7759,7 +7865,7 @@
         <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -7768,20 +7874,18 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>359</v>
+        <v>137</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -7818,65 +7922,65 @@
         <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>358</v>
+        <v>228</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -7888,16 +7992,16 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>241</v>
+        <v>375</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7947,7 +8051,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -7956,16 +8060,16 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -7979,10 +8083,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8005,13 +8109,13 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>205</v>
+        <v>380</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8062,7 +8166,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>206</v>
+        <v>381</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8080,7 +8184,7 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8094,10 +8198,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8108,7 +8212,7 @@
         <v>91</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8117,18 +8221,20 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>209</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8165,52 +8271,54 @@
         <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>214</v>
+        <v>382</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8233,16 +8341,16 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>371</v>
+        <v>258</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8292,7 +8400,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>214</v>
+        <v>388</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8301,16 +8409,16 @@
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>81</v>
+        <v>392</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8324,46 +8432,42 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8411,25 +8515,25 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -8443,10 +8547,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8457,7 +8561,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -8466,20 +8570,18 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -8504,68 +8606,68 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>81</v>
       </c>
@@ -8586,16 +8688,16 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>191</v>
+        <v>397</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>270</v>
+        <v>398</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>271</v>
+        <v>399</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8621,13 +8723,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -8645,7 +8747,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8654,16 +8756,16 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -8672,49 +8774,51 @@
         <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -8762,31 +8866,31 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -8794,10 +8898,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8817,19 +8921,19 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="N63" t="s" s="2">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8855,13 +8959,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -8879,7 +8983,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -8894,27 +8998,27 @@
         <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8937,15 +9041,17 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>381</v>
+        <v>209</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -8970,13 +9076,13 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -8994,7 +9100,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>380</v>
+        <v>287</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9012,7 +9118,7 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9021,6 +9127,355 @@
         <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Provenance.xlsx
+++ b/StructureDefinition-profile-Provenance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="352">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2845793-06:00</t>
+    <t>2026-02-17T14:42:26.8838643-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -476,7 +476,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Provenance.basedOn` is will have a context of Provenance based on following the parent source element upwards and mapping to `Provenance`.</t>
+Element `Provenance.basedOn` has a context of Provenance based on following the parent source element upwards and mapping to `Provenance`.</t>
   </si>
   <si>
     <t>Provenance.extension:patient</t>
@@ -492,7 +492,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.patient` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Provenance.patient` is will have a context of Provenance based on following the parent source element upwards and mapping to `Provenance`.</t>
+Element `Provenance.patient` has a context of Provenance based on following the parent source element upwards and mapping to `Provenance`.</t>
   </si>
   <si>
     <t>Provenance.extension:encounter</t>
@@ -508,7 +508,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Provenance.encounter` is will have a context of Provenance based on following the parent source element upwards and mapping to `Provenance`.</t>
+Element `Provenance.encounter` has a context of Provenance based on following the parent source element upwards and mapping to `Provenance`.</t>
   </si>
   <si>
     <t>Provenance.modifierExtension</t>
@@ -745,7 +745,7 @@
     <t>The authorization (e.g., PurposeOfUse) that was used during the event being recorded.</t>
   </si>
   <si>
-    <t>Element `Provenance.authorization` is mapped to FHIR R4 element `Provenance.reason`.</t>
+    <t>Element `Provenance.authorization` has is mapped to FHIR R4 element `Provenance.reason`, but has no comparisons.</t>
   </si>
   <si>
     <t>Provenance.reason.coding</t>
@@ -855,10 +855,25 @@
     <t>Provenance.agent.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Provenance.agent.extension:agent</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.agent|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Provenance.agent from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Provenance.agent` has is mapped to FHIR R4 element `Provenance.agent`, but has no comparisons.
+Note available implied context: `Provenance.entity.agent` because `Provenance.entity.agent` is defined as a content reference to `Provenance.agent`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Provenance.agent.modifierExtension</t>
@@ -960,179 +975,59 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>Provenance.agent.who.id</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who.extension</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who.extension:who</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Provenance.agent.who from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Provenance.agent.who` is part of an existing definition because parent element `Provenance.agent` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.agent.who` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Provenance.agent.who` is mapped to FHIR R4 element `Provenance.agent.who`.</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
+    <t>Provenance.agent.onBehalfOf</t>
+  </si>
+  <si>
+    <t>Who the agent is representing</t>
+  </si>
+  <si>
+    <t>The individual, device, or organization for whom the change was made.</t>
+  </si>
+  <si>
+    <t>onBehalfOfIdentity should be used when the agent is not a Resource type.</t>
+  </si>
+  <si>
+    <t>Person, Practitioner, Organization, Device :* .role [classCode = RoleClassMutualRelationship; role.code and * .scopes[Role](classCode=IDENT) and *.plays [Role.Code]</t>
+  </si>
+  <si>
+    <t>Provenance.entity</t>
+  </si>
+  <si>
+    <t>An entity used in this activity</t>
+  </si>
+  <si>
+    <t>An entity used in this activity.</t>
+  </si>
+  <si>
+    <t>./subjectOf</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity</t>
+  </si>
+  <si>
+    <t>Provenance.entity.id</t>
+  </si>
+  <si>
+    <t>Provenance.entity.extension</t>
+  </si>
+  <si>
+    <t>Provenance.entity.extension:entity</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.entity|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Provenance.agent.who.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf</t>
-  </si>
-  <si>
-    <t>Who the agent is representing</t>
-  </si>
-  <si>
-    <t>The individual, device, or organization for whom the change was made.</t>
-  </si>
-  <si>
-    <t>onBehalfOfIdentity should be used when the agent is not a Resource type.</t>
-  </si>
-  <si>
-    <t>Person, Practitioner, Organization, Device :* .role [classCode = RoleClassMutualRelationship; role.code and * .scopes[Role](classCode=IDENT) and *.plays [Role.Code]</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf.id</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf.extension</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf.extension:onBehalfOf</t>
-  </si>
-  <si>
-    <t>onBehalfOf</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Provenance.agent.onBehalfOf from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Provenance.agent.onBehalfOf` is part of an existing definition because parent element `Provenance.agent` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.agent.onBehalfOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Provenance.agent.onBehalfOf` is mapped to FHIR R4 element `Provenance.agent.onBehalfOf`.</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf.reference</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf.type</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf.identifier</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf.display</t>
-  </si>
-  <si>
-    <t>Provenance.entity</t>
-  </si>
-  <si>
-    <t>An entity used in this activity</t>
-  </si>
-  <si>
-    <t>An entity used in this activity.</t>
-  </si>
-  <si>
-    <t>./subjectOf</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity</t>
-  </si>
-  <si>
-    <t>Provenance.entity.id</t>
-  </si>
-  <si>
-    <t>Provenance.entity.extension</t>
+    <t>Cross-version extension for Provenance.entity from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Provenance.entity` has is mapped to FHIR R4 element `Provenance.entity`, but has no comparisons.</t>
   </si>
   <si>
     <t>Provenance.entity.modifierExtension</t>
@@ -1165,47 +1060,6 @@
     <t>AuditEvent.entity.lifecycle</t>
   </si>
   <si>
-    <t>Provenance.entity.role.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Provenance.entity.role.extension</t>
-  </si>
-  <si>
-    <t>Provenance.entity.role.extension:role</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.entity.role|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Provenance.entity.role from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Provenance.entity.role` is mapped to FHIR R4 element `Provenance.entity.role`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Provenance.entity.role.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
     <t>Provenance.entity.what</t>
   </si>
   <si>
@@ -1237,46 +1091,6 @@
   </si>
   <si>
     <t>./author/role</t>
-  </si>
-  <si>
-    <t>Provenance.entity.agent.id</t>
-  </si>
-  <si>
-    <t>Provenance.entity.agent.extension</t>
-  </si>
-  <si>
-    <t>Provenance.entity.agent.extension:agent</t>
-  </si>
-  <si>
-    <t>agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.entity.agent|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Provenance.entity.agent from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The entity is attributed to an agent to express the agent's responsibility for that entity, possibly along with other agents. This description can be understood as shorthand for saying that the agent was responsible for the activity which used the entity.</t>
-  </si>
-  <si>
-    <t>Element `Provenance.entity.agent` is mapped to FHIR R4 element `Provenance.entity.agent`.</t>
-  </si>
-  <si>
-    <t>Provenance.entity.agent.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.entity.agent.type</t>
-  </si>
-  <si>
-    <t>Provenance.entity.agent.role</t>
-  </si>
-  <si>
-    <t>Provenance.entity.agent.who</t>
-  </si>
-  <si>
-    <t>Provenance.entity.agent.onBehalfOf</t>
   </si>
   <si>
     <t>Provenance.signature</t>
@@ -1599,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1608,8 +1422,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.96484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.6953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.70703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -4824,11 +4638,11 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
@@ -4846,14 +4660,12 @@
         <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>137</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4890,16 +4702,14 @@
         <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>228</v>
@@ -4920,7 +4730,7 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
@@ -4934,18 +4744,20 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D29" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -4954,26 +4766,24 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5021,7 +4831,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5030,7 +4840,7 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>142</v>
@@ -5039,7 +4849,7 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
@@ -5053,33 +4863,33 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>278</v>
@@ -5088,9 +4898,11 @@
         <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5114,13 +4926,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5138,42 +4950,42 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5184,7 +4996,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5193,19 +5005,19 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>209</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5231,13 +5043,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5255,13 +5067,13 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
@@ -5270,27 +5082,27 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5298,10 +5110,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5310,19 +5122,19 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5348,13 +5160,13 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5372,13 +5184,13 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
@@ -5387,27 +5199,27 @@
         <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5415,7 +5227,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>91</v>
@@ -5427,18 +5239,20 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5487,10 +5301,10 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>91</v>
@@ -5499,19 +5313,19 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5519,10 +5333,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5530,11 +5344,11 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5545,15 +5359,17 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>137</v>
+        <v>309</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5590,37 +5406,37 @@
         <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5634,23 +5450,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5662,17 +5476,15 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5721,7 +5533,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5733,30 +5545,30 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5776,20 +5588,18 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>222</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5838,7 +5648,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>224</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5847,16 +5657,16 @@
         <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
@@ -5870,10 +5680,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5884,7 +5694,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -5893,20 +5703,18 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>137</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5931,49 +5739,47 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>322</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
@@ -5987,12 +5793,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6001,7 +5809,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6010,19 +5818,19 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6072,25 +5880,25 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>228</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
@@ -6104,44 +5912,46 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6189,19 +5999,19 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6221,10 +6031,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6232,7 +6042,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>91</v>
@@ -6244,20 +6054,18 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>297</v>
+        <v>111</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6282,13 +6090,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6306,10 +6114,10 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>91</v>
@@ -6324,24 +6132,24 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6349,7 +6157,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -6361,18 +6169,20 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>222</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6421,10 +6231,10 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>91</v>
@@ -6433,22 +6243,22 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>225</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42">
@@ -6479,15 +6289,17 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>137</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6524,19 +6336,19 @@
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6548,13 +6360,13 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -6568,14 +6380,12 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6584,7 +6394,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6596,17 +6406,15 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>145</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6655,7 +6463,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6667,13 +6475,13 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
@@ -6682,2800 +6490,6 @@
         <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO67" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Provenance.xlsx
+++ b/StructureDefinition-profile-Provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8838643-06:00</t>
+    <t>2026-02-20T11:59:20.9252079-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Provenance|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Provenance</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -465,7 +465,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -683,7 +683,7 @@
     <t>The reason the activity took place.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -735,7 +735,7 @@
     <t>authorization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.authorization|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.authorization}
 </t>
   </si>
   <si>
@@ -861,7 +861,7 @@
     <t>agent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.agent|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.agent}
 </t>
   </si>
   <si>
@@ -1020,7 +1020,7 @@
     <t>entity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.entity|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.entity}
 </t>
   </si>
   <si>
@@ -1447,7 +1447,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.97265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.78125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.12109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Provenance.xlsx
+++ b/StructureDefinition-profile-Provenance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="341">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9252079-06:00</t>
+    <t>2026-02-21T13:36:54.3293254-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Provenance</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Provenance|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -435,10 +435,235 @@
     <t>Provenance.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Provenance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Target Reference(s) (usually version specific)</t>
+  </si>
+  <si>
+    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
+  </si>
+  <si>
+    <t>Target references are usually version specific, but might not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource might not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
+  </si>
+  <si>
+    <t>Entity Created/Updated</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.reference</t>
+  </si>
+  <si>
+    <t>Provenance.occurred[x]</t>
+  </si>
+  <si>
+    <t>Period
+dateTime</t>
+  </si>
+  <si>
+    <t>When the activity occurred</t>
+  </si>
+  <si>
+    <t>The period during which the activity occurred.</t>
+  </si>
+  <si>
+    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
+  </si>
+  <si>
+    <t>Event.occurred[x]</t>
+  </si>
+  <si>
+    <t>./effectiveTime[type=IVL_TS]</t>
+  </si>
+  <si>
+    <t>Activity.startTime &amp; Activity.endTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Provenance.recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the activity was recorded / updated</t>
+  </si>
+  <si>
+    <t>The instant of time at which the activity was recorded.</t>
+  </si>
+  <si>
+    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
+  </si>
+  <si>
+    <t>Activity.when</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>AuditEvent.recorded</t>
+  </si>
+  <si>
+    <t>Provenance.policy</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
+  </si>
+  <si>
+    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
+  </si>
+  <si>
+    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.policy</t>
+  </si>
+  <si>
+    <t>Provenance.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant.</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>Activity.location</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.location</t>
+  </si>
+  <si>
+    <t>Provenance.reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason the activity is occurring</t>
+  </si>
+  <si>
+    <t>The reason that the activity was taking place.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The reason the activity took place.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>unique(./reasonCode)</t>
+  </si>
+  <si>
+    <t>Activity.Activity</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>AuditEvent.purposeOfEvent</t>
+  </si>
+  <si>
+    <t>Provenance.reason.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Provenance.reason.extension</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -449,303 +674,32 @@
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Provenance.extension:basedOn</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Provenance.reason.extension:authorization</t>
+  </si>
+  <si>
+    <t>authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.authorization|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Provenance.basedOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan,http://hl7.org/fhir/StructureDefinition/DeviceRequest,http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation,http://hl7.org/fhir/StructureDefinition/MedicationRequest,http://hl7.org/fhir/StructureDefinition/NutritionOrder,http://hl7.org/fhir/StructureDefinition/ServiceRequest,http://hl7.org/fhir/StructureDefinition/Task in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Provenance.basedOn` has a context of Provenance based on following the parent source element upwards and mapping to `Provenance`.</t>
-  </si>
-  <si>
-    <t>Provenance.extension:patient</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Provenance.patient from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.patient` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Provenance.patient` has a context of Provenance based on following the parent source element upwards and mapping to `Provenance`.</t>
-  </si>
-  <si>
-    <t>Provenance.extension:encounter</t>
-  </si>
-  <si>
-    <t>encounter</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Provenance.encounter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Encounter in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Provenance.encounter` has a context of Provenance based on following the parent source element upwards and mapping to `Provenance`.</t>
-  </si>
-  <si>
-    <t>Provenance.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Target Reference(s) (usually version specific)</t>
-  </si>
-  <si>
-    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
-  </si>
-  <si>
-    <t>Target references are usually version specific, but might not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource might not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
-  </si>
-  <si>
-    <t>Entity Created/Updated</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.reference</t>
-  </si>
-  <si>
-    <t>Provenance.occurred[x]</t>
-  </si>
-  <si>
-    <t>Period
-dateTime</t>
-  </si>
-  <si>
-    <t>When the activity occurred</t>
-  </si>
-  <si>
-    <t>The period during which the activity occurred.</t>
-  </si>
-  <si>
-    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
-  </si>
-  <si>
-    <t>Event.occurred[x]</t>
-  </si>
-  <si>
-    <t>./effectiveTime[type=IVL_TS]</t>
-  </si>
-  <si>
-    <t>Activity.startTime &amp; Activity.endTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Provenance.recorded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the activity was recorded / updated</t>
-  </si>
-  <si>
-    <t>The instant of time at which the activity was recorded.</t>
-  </si>
-  <si>
-    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
-  </si>
-  <si>
-    <t>Activity.when</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>AuditEvent.recorded</t>
-  </si>
-  <si>
-    <t>Provenance.policy</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
-  </si>
-  <si>
-    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
-  </si>
-  <si>
-    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.policy</t>
-  </si>
-  <si>
-    <t>Provenance.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant.</t>
-  </si>
-  <si>
-    <t>Event.location</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>Activity.location</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.location</t>
-  </si>
-  <si>
-    <t>Provenance.reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Reason the activity is occurring</t>
-  </si>
-  <si>
-    <t>The reason that the activity was taking place.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The reason the activity took place.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>unique(./reasonCode)</t>
-  </si>
-  <si>
-    <t>Activity.Activity</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>AuditEvent.purposeOfEvent</t>
-  </si>
-  <si>
-    <t>Provenance.reason.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Provenance.reason.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Provenance.reason.extension:authorization</t>
-  </si>
-  <si>
-    <t>authorization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.authorization}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for Provenance.authorization from R5 for use in FHIR R4</t>
   </si>
   <si>
     <t>The authorization (e.g., PurposeOfUse) that was used during the event being recorded.</t>
   </si>
   <si>
-    <t>Element `Provenance.authorization` has is mapped to FHIR R4 element `Provenance.reason`, but has no comparisons.</t>
+    <t>Element `Provenance.authorization` is mapped to FHIR R4 element `Provenance.reason` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Provenance.reason.coding</t>
@@ -855,209 +809,216 @@
     <t>Provenance.agent.extension</t>
   </si>
   <si>
-    <t>Provenance.agent.extension:agent</t>
-  </si>
-  <si>
-    <t>agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.agent}
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Provenance.agent.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.agent.type</t>
+  </si>
+  <si>
+    <t>How the agent participated</t>
+  </si>
+  <si>
+    <t>The participation the agent had with respect to the activity.</t>
+  </si>
+  <si>
+    <t>For example: author, performer, enterer, attester, etc.</t>
+  </si>
+  <si>
+    <t>The type of participation that a provenance agent played with respect to the activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provenance-agent-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>.role</t>
+  </si>
+  <si>
+    <t>Agent.Attribution</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.type</t>
+  </si>
+  <si>
+    <t>Provenance.agent.role</t>
+  </si>
+  <si>
+    <t>What the agents role was</t>
+  </si>
+  <si>
+    <t>The function of the agent with respect to the activity. The security role enabling the agent with respect to the activity.</t>
+  </si>
+  <si>
+    <t>For example: doctor, nurse, clerk, etc.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The role that a provenance agent played with respect to the activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type|4.0.1</t>
+  </si>
+  <si>
+    <t>.typecode</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.role</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Patient|4.0.1|Device|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Provenance.agent from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Provenance.agent` has is mapped to FHIR R4 element `Provenance.agent`, but has no comparisons.
-Note available implied context: `Provenance.entity.agent` because `Provenance.entity.agent` is defined as a content reference to `Provenance.agent`.</t>
+    <t>Who participated</t>
+  </si>
+  <si>
+    <t>The individual, device or organization that participated in the event.</t>
+  </si>
+  <si>
+    <t>whoIdentity should be used when the agent is not a Resource type.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Provenance.agent.onBehalfOf</t>
+  </si>
+  <si>
+    <t>Who the agent is representing</t>
+  </si>
+  <si>
+    <t>The individual, device, or organization for whom the change was made.</t>
+  </si>
+  <si>
+    <t>onBehalfOfIdentity should be used when the agent is not a Resource type.</t>
+  </si>
+  <si>
+    <t>Person, Practitioner, Organization, Device :* .role [classCode = RoleClassMutualRelationship; role.code and * .scopes[Role](classCode=IDENT) and *.plays [Role.Code]</t>
+  </si>
+  <si>
+    <t>Provenance.entity</t>
+  </si>
+  <si>
+    <t>An entity used in this activity</t>
+  </si>
+  <si>
+    <t>An entity used in this activity.</t>
+  </si>
+  <si>
+    <t>./subjectOf</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity</t>
+  </si>
+  <si>
+    <t>Provenance.entity.id</t>
+  </si>
+  <si>
+    <t>Provenance.entity.extension</t>
+  </si>
+  <si>
+    <t>Provenance.entity.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.entity.role</t>
+  </si>
+  <si>
+    <t>derivation | revision | quotation | source | removal</t>
+  </si>
+  <si>
+    <t>How the entity was used during the activity.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>How an entity was used in an activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provenance-entity-role|4.0.1</t>
+  </si>
+  <si>
+    <t>./typeCode</t>
+  </si>
+  <si>
+    <t>Entity.role</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.lifecycle</t>
+  </si>
+  <si>
+    <t>Provenance.entity.role.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Provenance.entity.role.extension</t>
+  </si>
+  <si>
+    <t>Provenance.entity.role.extension:role</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.entity.role|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Provenance.entity.role from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Provenance.entity.role` is mapped to FHIR R4 element `Provenance.entity.role` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Provenance.agent.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.agent.type</t>
-  </si>
-  <si>
-    <t>How the agent participated</t>
-  </si>
-  <si>
-    <t>The participation the agent had with respect to the activity.</t>
-  </si>
-  <si>
-    <t>For example: author, performer, enterer, attester, etc.</t>
-  </si>
-  <si>
-    <t>The type of participation that a provenance agent played with respect to the activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-agent-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>.role</t>
-  </si>
-  <si>
-    <t>Agent.Attribution</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.type</t>
-  </si>
-  <si>
-    <t>Provenance.agent.role</t>
-  </si>
-  <si>
-    <t>What the agents role was</t>
-  </si>
-  <si>
-    <t>The function of the agent with respect to the activity. The security role enabling the agent with respect to the activity.</t>
-  </si>
-  <si>
-    <t>For example: doctor, nurse, clerk, etc.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The role that a provenance agent played with respect to the activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-role-type|4.0.1</t>
-  </si>
-  <si>
-    <t>.typecode</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.role</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Patient|4.0.1|Device|4.0.1|Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who participated</t>
-  </si>
-  <si>
-    <t>The individual, device or organization that participated in the event.</t>
-  </si>
-  <si>
-    <t>whoIdentity should be used when the agent is not a Resource type.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf</t>
-  </si>
-  <si>
-    <t>Who the agent is representing</t>
-  </si>
-  <si>
-    <t>The individual, device, or organization for whom the change was made.</t>
-  </si>
-  <si>
-    <t>onBehalfOfIdentity should be used when the agent is not a Resource type.</t>
-  </si>
-  <si>
-    <t>Person, Practitioner, Organization, Device :* .role [classCode = RoleClassMutualRelationship; role.code and * .scopes[Role](classCode=IDENT) and *.plays [Role.Code]</t>
-  </si>
-  <si>
-    <t>Provenance.entity</t>
-  </si>
-  <si>
-    <t>An entity used in this activity</t>
-  </si>
-  <si>
-    <t>An entity used in this activity.</t>
-  </si>
-  <si>
-    <t>./subjectOf</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity</t>
-  </si>
-  <si>
-    <t>Provenance.entity.id</t>
-  </si>
-  <si>
-    <t>Provenance.entity.extension</t>
-  </si>
-  <si>
-    <t>Provenance.entity.extension:entity</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Provenance.entity}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Provenance.entity from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Provenance.entity` has is mapped to FHIR R4 element `Provenance.entity`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Provenance.entity.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.entity.role</t>
-  </si>
-  <si>
-    <t>derivation | revision | quotation | source | removal</t>
-  </si>
-  <si>
-    <t>How the entity was used during the activity.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>How an entity was used in an activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-entity-role|4.0.1</t>
-  </si>
-  <si>
-    <t>./typeCode</t>
-  </si>
-  <si>
-    <t>Entity.role</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.lifecycle</t>
+    <t>Provenance.entity.role.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>Provenance.entity.what</t>
@@ -1413,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1447,7 +1408,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.97265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.12109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.78125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2415,7 +2376,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2434,15 +2395,17 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -2479,14 +2442,16 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>141</v>
@@ -2507,7 +2472,7 @@
         <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>81</v>
@@ -2524,13 +2489,11 @@
         <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2543,24 +2506,26 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -2608,7 +2573,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2626,7 +2591,7 @@
         <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>81</v>
@@ -2640,23 +2605,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
@@ -2665,19 +2628,19 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2727,10 +2690,10 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>80</v>
@@ -2739,34 +2702,32 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>81</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>81</v>
       </c>
@@ -2787,16 +2748,16 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2846,31 +2807,31 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -2878,46 +2839,44 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="J13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
@@ -2965,42 +2924,42 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3008,7 +2967,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3020,19 +2979,19 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3082,10 +3041,10 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
@@ -3100,24 +3059,24 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3140,17 +3099,15 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3199,7 +3156,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3214,27 +3171,27 @@
         <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3242,10 +3199,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3254,20 +3211,18 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3292,13 +3247,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3316,13 +3271,13 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
@@ -3331,27 +3286,27 @@
         <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3362,7 +3317,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -3374,17 +3329,15 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3433,25 +3386,25 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
@@ -3460,15 +3413,15 @@
         <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3479,7 +3432,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -3491,13 +3444,13 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3536,56 +3489,58 @@
         <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>81</v>
       </c>
@@ -3606,15 +3561,17 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3639,31 +3596,31 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3675,30 +3632,30 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3709,7 +3666,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -3718,19 +3675,23 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -3778,25 +3739,25 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>81</v>
@@ -3810,10 +3771,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3824,7 +3785,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -3833,19 +3794,23 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -3881,37 +3846,37 @@
         <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
@@ -3925,14 +3890,12 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>81</v>
       </c>
@@ -3941,7 +3904,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -3953,17 +3916,15 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -3988,13 +3949,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4012,31 +3973,31 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4044,10 +4005,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4055,7 +4016,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>80</v>
@@ -4067,22 +4028,22 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4131,10 +4092,10 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>80</v>
@@ -4146,27 +4107,27 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4186,23 +4147,19 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4250,7 +4207,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4262,13 +4219,13 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -4282,21 +4239,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4308,15 +4265,17 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4341,13 +4300,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4365,31 +4324,31 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4404,11 +4363,11 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
@@ -4417,13 +4376,13 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>259</v>
@@ -4432,10 +4391,10 @@
         <v>260</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>261</v>
+        <v>140</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4484,10 +4443,10 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>80</v>
@@ -4496,30 +4455,30 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4539,18 +4498,20 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4575,13 +4536,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4599,7 +4560,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4611,30 +4572,30 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4642,7 +4603,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
@@ -4657,15 +4618,17 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4690,29 +4653,31 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4724,13 +4689,13 @@
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
@@ -4739,19 +4704,17 @@
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>81</v>
       </c>
@@ -4760,7 +4723,7 @@
         <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -4769,19 +4732,19 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4831,31 +4794,31 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -4863,46 +4826,44 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -4950,25 +4911,25 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
@@ -4982,10 +4943,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4996,7 +4957,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5005,20 +4966,18 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5043,13 +5002,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5067,13 +5026,13 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
@@ -5082,27 +5041,27 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5113,7 +5072,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5125,17 +5084,15 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5160,13 +5117,13 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5184,25 +5141,25 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5211,26 +5168,26 @@
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5239,19 +5196,19 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>304</v>
+        <v>140</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5301,31 +5258,31 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>307</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5333,44 +5290,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5418,25 +5377,25 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5450,10 +5409,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5461,10 +5420,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5473,16 +5432,16 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5509,13 +5468,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -5533,13 +5492,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -5551,24 +5510,24 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5591,13 +5550,13 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5648,7 +5607,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5666,7 +5625,7 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
@@ -5680,10 +5639,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5691,7 +5650,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
@@ -5706,13 +5665,13 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5751,17 +5710,17 @@
         <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5793,23 +5752,23 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -5821,16 +5780,16 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5880,7 +5839,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5889,7 +5848,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>142</v>
@@ -5912,46 +5871,42 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -5999,25 +5954,25 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
@@ -6031,10 +5986,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6057,15 +6012,17 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6090,13 +6047,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6114,7 +6071,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>91</v>
@@ -6132,24 +6089,24 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>335</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6157,10 +6114,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6169,19 +6126,19 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6231,13 +6188,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -6249,24 +6206,24 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6289,17 +6246,15 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>82</v>
+        <v>337</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6348,7 +6303,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6366,7 +6321,7 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -6375,121 +6330,6 @@
         <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO43" t="s" s="2">
         <v>81</v>
       </c>
     </row>
